--- a/table.xlsx
+++ b/table.xlsx
@@ -283,7 +283,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -316,6 +316,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -621,8 +624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1662,7 +1665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1712,7 +1715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="1">
         <f>SUM(B21:B35)</f>
         <v>4</v>
@@ -1761,12 +1764,12 @@
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="N36" s="1">
+      <c r="N36" s="12">
         <f>SUM(B36:M36)</f>
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C37" s="1">
         <f>B36*C36</f>
         <v>12</v>
@@ -1807,7 +1810,7 @@
         <f t="shared" si="5"/>
         <v>92160</v>
       </c>
-      <c r="M37" s="1">
+      <c r="M37" s="12">
         <f t="shared" si="5"/>
         <v>276480</v>
       </c>
@@ -1832,7 +1835,7 @@
         <v>0.6</v>
       </c>
       <c r="F40" s="1">
-        <v>0.95</v>
+        <v>0.3</v>
       </c>
       <c r="G40" s="1">
         <v>0.8</v>
@@ -1870,7 +1873,7 @@
         <v>0.9</v>
       </c>
       <c r="F41" s="1">
-        <v>0.3</v>
+        <v>0.95</v>
       </c>
       <c r="G41" s="1">
         <v>0.6</v>
